--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_25_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_25_33.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>971200.7252166648</v>
+        <v>984927.0833540837</v>
       </c>
     </row>
     <row r="7">
@@ -26311,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>675902.9794415567</v>
+        <v>675902.979441557</v>
       </c>
       <c r="C2" t="n">
         <v>675902.9794415568</v>
       </c>
       <c r="D2" t="n">
-        <v>675902.9794415567</v>
+        <v>675902.979441557</v>
       </c>
       <c r="E2" t="n">
         <v>188628.9044472749</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100</v>
+        <v>133100.0000000001</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>467615.9599317313</v>
+        <v>467615.9599317312</v>
       </c>
       <c r="C4" t="n">
-        <v>467615.9599317313</v>
+        <v>467615.9599317312</v>
       </c>
       <c r="D4" t="n">
-        <v>467615.9599317313</v>
+        <v>467615.9599317312</v>
       </c>
       <c r="E4" t="n">
         <v>79636.80000449967</v>
@@ -26519,16 +26521,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>174659.4195098255</v>
+        <v>174659.4195098257</v>
       </c>
       <c r="C6" t="n">
         <v>174659.4195098256</v>
       </c>
       <c r="D6" t="n">
-        <v>174659.4195098255</v>
+        <v>174659.4195098257</v>
       </c>
       <c r="E6" t="n">
-        <v>-27719.5076622331</v>
+        <v>-27719.50766223313</v>
       </c>
       <c r="F6" t="n">
         <v>105380.4923377669</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_25_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_25_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>984927.0833540837</v>
+        <v>901141.6815924585</v>
       </c>
     </row>
     <row r="7">
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>675902.979441557</v>
+        <v>675902.9794415567</v>
       </c>
       <c r="C2" t="n">
+        <v>675902.9794415571</v>
+      </c>
+      <c r="D2" t="n">
         <v>675902.9794415568</v>
-      </c>
-      <c r="D2" t="n">
-        <v>675902.979441557</v>
       </c>
       <c r="E2" t="n">
         <v>188628.9044472749</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>174659.4195098257</v>
+        <v>174615.2837311444</v>
       </c>
       <c r="C6" t="n">
-        <v>174659.4195098256</v>
+        <v>174615.2837311447</v>
       </c>
       <c r="D6" t="n">
-        <v>174659.4195098257</v>
+        <v>174615.2837311445</v>
       </c>
       <c r="E6" t="n">
-        <v>-27719.50766223313</v>
+        <v>-42529.52450134707</v>
       </c>
       <c r="F6" t="n">
-        <v>105380.4923377669</v>
+        <v>90570.475498653</v>
       </c>
       <c r="G6" t="n">
-        <v>105380.4923377669</v>
+        <v>90570.475498653</v>
       </c>
       <c r="H6" t="n">
-        <v>105380.4923377669</v>
+        <v>90570.475498653</v>
       </c>
       <c r="I6" t="n">
-        <v>105380.4923377669</v>
+        <v>90570.475498653</v>
       </c>
       <c r="J6" t="n">
-        <v>105380.4923377669</v>
+        <v>90570.475498653</v>
       </c>
       <c r="K6" t="n">
-        <v>105380.4923377669</v>
+        <v>90570.475498653</v>
       </c>
       <c r="L6" t="n">
-        <v>105380.4923377669</v>
+        <v>90570.475498653</v>
       </c>
       <c r="M6" t="n">
-        <v>105380.4923377669</v>
+        <v>90570.475498653</v>
       </c>
       <c r="N6" t="n">
-        <v>105380.4923377669</v>
+        <v>90570.475498653</v>
       </c>
       <c r="O6" t="n">
-        <v>105380.4923377669</v>
+        <v>90570.475498653</v>
       </c>
       <c r="P6" t="n">
-        <v>105380.4923377669</v>
+        <v>90570.475498653</v>
       </c>
     </row>
   </sheetData>
